--- a/ferramenta_aig_com_dados.xlsx
+++ b/ferramenta_aig_com_dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="10215" windowHeight="2775" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="10215" windowHeight="2775" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ItemBank" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -331,14 +331,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -347,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,186 +651,193 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -838,146 +851,150 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
         <v>5</v>
       </c>
     </row>
@@ -988,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,167 +1019,149 @@
     <col min="4" max="4" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <f>COUNTA(ItemBank!A:A)-1</f>
         <v>5</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <f>COUNTA(Responses!A:A)-1</f>
         <v>5</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <f>AVERAGE(Responses!B2:B6)</f>
         <v>0.8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>CORREL(Responses!B2:B6,Responses!G2:G6)</f>
         <v>0.53452248382484879</v>
       </c>
-      <c r="D5" s="2" t="e">
+      <c r="D5" s="1" t="e">
         <f ca="1">VAR.S(Responses!B2:B6)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <f>AVERAGE(Responses!C2:C6)</f>
         <v>0.8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>CORREL(Responses!C2:C6,Responses!G2:G6)</f>
         <v>-0.13363062095621217</v>
       </c>
-      <c r="D6" s="2" t="e">
+      <c r="D6" s="1" t="e">
         <f ca="1">VAR.S(Responses!C2:C6)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <f>AVERAGE(Responses!D2:D6)</f>
         <v>0.8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>CORREL(Responses!D2:D6,Responses!G2:G6)</f>
         <v>0.53452248382484879</v>
       </c>
-      <c r="D7" s="2" t="e">
+      <c r="D7" s="1" t="e">
         <f ca="1">VAR.S(Responses!D2:D6)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <f>AVERAGE(Responses!E2:E6)</f>
         <v>0.6</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>CORREL(Responses!E2:E6,Responses!G2:G6)</f>
         <v>0.32732683535398854</v>
       </c>
-      <c r="D8" s="2" t="e">
+      <c r="D8" s="1" t="e">
         <f ca="1">VAR.S(Responses!E2:E6)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <f>AVERAGE(Responses!F2:F6)</f>
         <v>0.8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>CORREL(Responses!F2:F6,Responses!G2:G6)</f>
         <v>0.53452248382484879</v>
       </c>
-      <c r="D9" s="2" t="e">
+      <c r="D9" s="1" t="e">
         <f ca="1">VAR.S(Responses!F2:F6)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="2" t="e">
+      <c r="B10" s="9" t="e">
         <f ca="1">(5/(5-1))*(1 - (SUM(VARIANCE(Responses!B2:B6),VARIANCE(Responses!C2:C6),VARIANCE(Responses!D2:D6),VARIANCE(Responses!E2:E6),VARIANCE(Responses!F2:F6))/VAR.S(Responses!B2:F6)) )</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="94.5" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A15:F15"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1170,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1197,27 +1196,18 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="54.75" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
